--- a/アルバム登録_単体テスト.xlsx
+++ b/アルバム登録_単体テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE5AEC64-F420-492C-B514-60237C7B08B0}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{1279D925-3AE7-4649-9250-D238FF145412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D8E8DE2-0199-4E7E-84D4-5DCBF67F7E8C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -221,16 +221,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.「確認する」ボタンを押す</t>
     <rPh sb="3" eb="5">
       <t>カクニン</t>
@@ -854,6 +844,16 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -950,7 +950,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,9 +962,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1728,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -1740,24 +1737,24 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1766,7 +1763,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -1775,17 +1772,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1826,19 +1823,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45993</v>
+        <v>49</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1848,7 +1845,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -1864,19 +1861,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45993</v>
+        <v>50</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1886,7 +1883,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1902,19 +1899,19 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45993</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -1924,7 +1921,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1940,19 +1937,19 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="4">
-        <v>45993</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -1962,7 +1959,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1978,19 +1975,19 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="4">
-        <v>45993</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2000,7 +1997,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -2019,16 +2016,16 @@
         <v>11</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="4">
-        <v>45993</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="2"/>
     </row>
@@ -2038,7 +2035,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2054,19 +2051,19 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45993</v>
+        <v>77</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2090,19 +2087,19 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45993</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -2126,19 +2123,19 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="4">
-        <v>45993</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I24" s="2"/>
     </row>
@@ -2148,7 +2145,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2164,19 +2161,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45993</v>
+        <v>51</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2200,19 +2197,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="4">
-        <v>45993</v>
+        <v>25</v>
+      </c>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2222,7 +2219,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2238,19 +2235,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45993</v>
+        <v>53</v>
+      </c>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -2260,7 +2257,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2276,19 +2273,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45993</v>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -2298,7 +2295,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -2314,19 +2311,19 @@
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45993</v>
+        <v>73</v>
+      </c>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -2336,7 +2333,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -2352,19 +2349,19 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G36" s="4">
-        <v>45993</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -2374,7 +2371,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -2390,19 +2387,19 @@
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="F38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="4">
-        <v>45993</v>
+        <v>52</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46016</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I38" s="2"/>
     </row>
@@ -2412,7 +2409,7 @@
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -2437,7 +2434,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="79" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2448,24 +2445,24 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="9"/>
+      <c r="A2" s="8"/>
       <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
@@ -2474,7 +2471,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="9"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2483,17 +2480,17 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="9"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -2532,19 +2529,19 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="4">
-        <v>45993</v>
+        <v>62</v>
+      </c>
+      <c r="G9" s="3">
+        <v>46016</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -2554,7 +2551,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2570,19 +2567,19 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="4">
-        <v>45993</v>
+        <v>63</v>
+      </c>
+      <c r="G11" s="3">
+        <v>46016</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2592,7 +2589,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2608,19 +2605,19 @@
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="4">
-        <v>45993</v>
+        <v>64</v>
+      </c>
+      <c r="G13" s="3">
+        <v>46016</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -2630,7 +2627,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2646,36 +2643,36 @@
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="4">
-        <v>45993</v>
+        <v>65</v>
+      </c>
+      <c r="G15" s="3">
+        <v>46016</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="5"/>
+        <v>76</v>
+      </c>
+      <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="5"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2"/>
@@ -2683,12 +2680,12 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="8"/>
+      <c r="I17" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
